--- a/target/test-classes/excelOutput/details.xlsx
+++ b/target/test-classes/excelOutput/details.xlsx
@@ -17,7 +17,7 @@
     <t>Doctor details</t>
   </si>
   <si>
-    <t>Dr. Dnyanesh Gaware</t>
+    <t>Dr. Avinash Inamdar</t>
   </si>
   <si>
     <t>39 years experience overall</t>
@@ -28,31 +28,31 @@
 99%210 Patient Stories</t>
   </si>
   <si>
-    <t>Dr. Avinash Inamdar</t>
+    <t>Dr. Dnyanesh Gaware</t>
+  </si>
+  <si>
+    <t>Aundh,Pune  The Inamdar Heart Clinic
+₹1500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Abhijeet Joshi</t>
+  </si>
+  <si>
+    <t>34 years experience overall</t>
   </si>
   <si>
     <t>Kalyani Nagar,Pune  Cardi Care Clinic + 1 more
 ₹1000 Consultation fee at clinic</t>
   </si>
   <si>
-    <t>Dr. Abhijeet Joshi</t>
-  </si>
-  <si>
-    <t>34 years experience overall</t>
-  </si>
-  <si>
-    <t>Aundh,Pune  The Inamdar Heart Clinic
-₹1500 Consultation fee at clinic</t>
-  </si>
-  <si>
     <t>Dr. Abhay Khode</t>
   </si>
   <si>
     <t>29 years experience overall</t>
   </si>
   <si>
-    <t>Shivajinagar,Pune  Joshi Polyclinic Heart Care &amp; Shruti Pathology Lab + 1 more
-₹1000 Consultation fee at clinic</t>
+    <t>Baner,Pune  Manipal Hospitals + 1 more
+₹900 Consultation fee at clinic</t>
   </si>
   <si>
     <t>Dr. Abhijeet Palshikar</t>
@@ -61,8 +61,8 @@
     <t>27 years experience overall</t>
   </si>
   <si>
-    <t>Baner,Pune  Cardio Vision Heart Specialty Clinic + 5 more
-₹800 Consultation fee at clinic</t>
+    <t>Pirangut,Pune  Lopmudra Multi-speciality Hospital + 5 more
+₹700 Consultation fee at clinic</t>
   </si>
   <si>
     <t>Surgery names</t>
